--- a/costs.xlsx
+++ b/costs.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
@@ -483,7 +483,36 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="3"/>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" t="n">
+        <v>2890</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>чайник маме</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>693</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>глобус</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>500</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>подписка тинькоф и яндекс</t>
+        </is>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="17.67" customWidth="1" style="2" min="2" max="2"/>
     <col width="11.52" customWidth="1" style="2" min="1009" max="1024"/>
@@ -483,33 +483,63 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="3">
-      <c r="A3" t="n">
-        <v>2890</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>чайник маме</t>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>4200</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>квартплата</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>693</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>глобус</t>
+      <c r="A4" s="2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>роллы</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>500</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>подписка тинькоф и яндекс</t>
+      <c r="A5" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>стрижка</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>перек</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>262</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>аптека</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>527</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>перек</t>
         </is>
       </c>
     </row>
